--- a/public/imports/promesas.xlsx
+++ b/public/imports/promesas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\rivarca\public\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36906C1C-0DBC-4370-81AD-32B08DD0B930}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425440B1-F259-4D52-B47A-30607A3187F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{DD919BFB-7F5D-47AC-9A0A-D4F6AAD42B29}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2917" uniqueCount="863">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2914" uniqueCount="863">
   <si>
     <t xml:space="preserve">MANZANA </t>
   </si>
@@ -2967,8 +2967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11EB9583-E0A2-4347-8D1B-17D688AB9D0D}">
   <dimension ref="A1:AB346"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G331" workbookViewId="0">
-      <selection activeCell="V220" sqref="V220"/>
+    <sheetView tabSelected="1" topLeftCell="N332" workbookViewId="0">
+      <selection activeCell="AA323" sqref="AA323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2976,6 +2976,10 @@
     <col min="15" max="15" width="18.140625" customWidth="1"/>
     <col min="22" max="22" width="40.28515625" customWidth="1"/>
     <col min="23" max="23" width="28.42578125" customWidth="1"/>
+    <col min="24" max="24" width="7.28515625" customWidth="1"/>
+    <col min="25" max="25" width="9.28515625" customWidth="1"/>
+    <col min="26" max="26" width="22" customWidth="1"/>
+    <col min="27" max="27" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
@@ -6568,9 +6572,6 @@
       <c r="Z102" t="s">
         <v>165</v>
       </c>
-      <c r="AA102" t="s">
-        <v>166</v>
-      </c>
       <c r="AB102" t="s">
         <v>167</v>
       </c>
@@ -16629,9 +16630,6 @@
       <c r="Z322" t="s">
         <v>260</v>
       </c>
-      <c r="AA322" t="s">
-        <v>166</v>
-      </c>
       <c r="AB322" t="s">
         <v>772</v>
       </c>
@@ -16699,9 +16697,6 @@
       </c>
       <c r="Z323" t="s">
         <v>260</v>
-      </c>
-      <c r="AA323" t="s">
-        <v>166</v>
       </c>
       <c r="AB323" t="s">
         <v>772</v>

--- a/public/imports/promesas.xlsx
+++ b/public/imports/promesas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\rivarca\public\imports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425440B1-F259-4D52-B47A-30607A3187F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC74B4F-60C7-4974-9076-5DD45D6AF87E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{DD919BFB-7F5D-47AC-9A0A-D4F6AAD42B29}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DD919BFB-7F5D-47AC-9A0A-D4F6AAD42B29}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -2967,8 +2967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11EB9583-E0A2-4347-8D1B-17D688AB9D0D}">
   <dimension ref="A1:AB346"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N332" workbookViewId="0">
-      <selection activeCell="AA323" sqref="AA323"/>
+    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
+      <selection activeCell="N228" sqref="N228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11388,7 +11388,7 @@
         <v>29</v>
       </c>
       <c r="E222">
-        <v>1118552897</v>
+        <v>1118552906</v>
       </c>
       <c r="F222" t="s">
         <v>516</v>
@@ -11459,7 +11459,7 @@
         <v>41</v>
       </c>
       <c r="E223">
-        <v>1118552898</v>
+        <v>1118552906</v>
       </c>
       <c r="F223" t="s">
         <v>516</v>
@@ -11530,7 +11530,7 @@
         <v>41</v>
       </c>
       <c r="E224">
-        <v>1118552899</v>
+        <v>1118552906</v>
       </c>
       <c r="F224" t="s">
         <v>516</v>
@@ -11601,7 +11601,7 @@
         <v>29</v>
       </c>
       <c r="E225">
-        <v>1118552900</v>
+        <v>1118552906</v>
       </c>
       <c r="F225" t="s">
         <v>516</v>
@@ -11672,7 +11672,7 @@
         <v>41</v>
       </c>
       <c r="E226">
-        <v>1118552901</v>
+        <v>1118552906</v>
       </c>
       <c r="F226" t="s">
         <v>516</v>
@@ -11743,7 +11743,7 @@
         <v>41</v>
       </c>
       <c r="E227">
-        <v>1118552902</v>
+        <v>1118552906</v>
       </c>
       <c r="F227" t="s">
         <v>516</v>
@@ -11814,7 +11814,7 @@
         <v>41</v>
       </c>
       <c r="E228">
-        <v>1118552903</v>
+        <v>1118552906</v>
       </c>
       <c r="F228" t="s">
         <v>516</v>
@@ -11885,7 +11885,7 @@
         <v>41</v>
       </c>
       <c r="E229">
-        <v>1118552904</v>
+        <v>1118552906</v>
       </c>
       <c r="F229" t="s">
         <v>516</v>
@@ -11956,7 +11956,7 @@
         <v>41</v>
       </c>
       <c r="E230">
-        <v>1118552905</v>
+        <v>1118552906</v>
       </c>
       <c r="F230" t="s">
         <v>516</v>
